--- a/Адресная программа.xlsx
+++ b/Адресная программа.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E28CE27-8A78-4C35-858D-7E581E7A1763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFD4504-3548-473A-8E6A-8F9F01BECE1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Адресная программа" sheetId="1" r:id="rId1"/>
+    <sheet name="Координаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
   <si>
     <t>Адрес:</t>
   </si>
@@ -26,14 +26,20 @@
     <t>lng:</t>
   </si>
   <si>
-    <t>Санкт-Петербург, Ждановская 11</t>
+    <t>Санкт-Петербург, Ждановская 2</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург, Ждановская 3</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург, Ждановская 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,12 +49,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,12 +98,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -372,17 +385,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -398,7 +412,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -412,188 +426,43 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>